--- a/Rest414Test/Assets/users.xlsx
+++ b/Rest414Test/Assets/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>myaddres_4_EXCEL</t>
-  </si>
-  <si>
-    <t>qwerty2</t>
   </si>
 </sst>
 </file>
@@ -926,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
